--- a/design/prompts.xlsx
+++ b/design/prompts.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="5" lowestEdited="5" rupBuild="25306"/>
   <workbookPr showInkAnnotation="0" autoCompressPictures="0"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="25600" windowHeight="15940" tabRatio="500"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="22620" windowHeight="9780" tabRatio="500"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -19,7 +19,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="26" uniqueCount="26">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="97" uniqueCount="30">
   <si>
     <t>Location</t>
   </si>
@@ -51,9 +51,6 @@
     <t>PICK_UP_IPAD</t>
   </si>
   <si>
-    <t>[partner] pick up the iPad and hold it so you can see my face but your partner can't.</t>
-  </si>
-  <si>
     <t>READ_THE_WORD</t>
   </si>
   <si>
@@ -75,28 +72,43 @@
     <t>Turn me over please!</t>
   </si>
   <si>
-    <t>[partner] find the word your partner read to you and tap it with your finger.</t>
-  </si>
-  <si>
-    <t>ON_CORRECT_SELECTION</t>
-  </si>
-  <si>
     <t>ON_STARTUP</t>
   </si>
   <si>
     <t>ON_INTRO</t>
   </si>
   <si>
-    <t>ON_SELECT_STIMULUS</t>
-  </si>
-  <si>
-    <t>ON_INCORRECT_SELECTION</t>
-  </si>
-  <si>
     <t>[partner] the word you chose was [ANSWER]</t>
   </si>
   <si>
-    <t>[partner] The right answer weas [ANSWER]</t>
+    <t>[partner] The right answer was [ANSWER]</t>
+  </si>
+  <si>
+    <t>:</t>
+  </si>
+  <si>
+    <t>,</t>
+  </si>
+  <si>
+    <t>//</t>
+  </si>
+  <si>
+    <t>"</t>
+  </si>
+  <si>
+    <t>[partner] now pick up the iPad and hold it so you can see my face but your partner can't.</t>
+  </si>
+  <si>
+    <t>[partner ]now find the word your partner read to you and tap it with your finger.</t>
+  </si>
+  <si>
+    <t>SELECT_STIMULUS</t>
+  </si>
+  <si>
+    <t>CORRECT_STIMULUS</t>
+  </si>
+  <si>
+    <t>INCORRECT_SELECTION</t>
   </si>
 </sst>
 </file>
@@ -145,8 +157,42 @@
       <diagonal/>
     </border>
   </borders>
-  <cellStyleXfs count="3">
+  <cellStyleXfs count="37">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
@@ -156,9 +202,43 @@
       <alignment wrapText="1"/>
     </xf>
   </cellXfs>
-  <cellStyles count="3">
+  <cellStyles count="37">
     <cellStyle name="Followed Hyperlink" xfId="2" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="4" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="6" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="8" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="10" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="12" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="14" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="16" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="18" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="20" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="22" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="24" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="26" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="28" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="30" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="32" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="34" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="36" builtinId="9" hidden="1"/>
     <cellStyle name="Hyperlink" xfId="1" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="3" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="5" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="7" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="9" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="11" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="13" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="15" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="17" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="19" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="21" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="23" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="25" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="27" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="29" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="31" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="33" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="35" builtinId="8" hidden="1"/>
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
   <dxfs count="0"/>
@@ -488,123 +568,340 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:B20"/>
+  <dimension ref="A1:H20"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="A14" sqref="A14"/>
+    <sheetView tabSelected="1" topLeftCell="A11" workbookViewId="0">
+      <selection activeCell="D12" sqref="D12"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0"/>
   <cols>
     <col min="1" max="1" width="40.83203125" customWidth="1"/>
-    <col min="2" max="2" width="80.33203125" style="1" customWidth="1"/>
+    <col min="2" max="3" width="2.1640625" customWidth="1"/>
+    <col min="4" max="4" width="28.5" customWidth="1"/>
+    <col min="5" max="5" width="2.1640625" customWidth="1"/>
+    <col min="6" max="7" width="4.6640625" customWidth="1"/>
+    <col min="8" max="8" width="80.33203125" style="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:2" ht="56" customHeight="1">
+    <row r="1" spans="1:8" ht="56" customHeight="1">
       <c r="A1" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="1" t="s">
+      <c r="H1" s="1" t="s">
         <v>1</v>
       </c>
     </row>
-    <row r="2" spans="1:2" ht="24" customHeight="1">
+    <row r="2" spans="1:8" ht="24" customHeight="1">
       <c r="A2" t="s">
         <v>6</v>
       </c>
-      <c r="B2" s="1" t="s">
-        <v>14</v>
-      </c>
-    </row>
-    <row r="3" spans="1:2">
+      <c r="B2" t="s">
+        <v>21</v>
+      </c>
+      <c r="C2" t="s">
+        <v>24</v>
+      </c>
+      <c r="D2" t="s">
+        <v>6</v>
+      </c>
+      <c r="E2" t="s">
+        <v>24</v>
+      </c>
+      <c r="F2" t="s">
+        <v>22</v>
+      </c>
+      <c r="G2" t="s">
+        <v>23</v>
+      </c>
+      <c r="H2" s="1" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="3" spans="1:8">
       <c r="A3" t="s">
-        <v>20</v>
-      </c>
-      <c r="B3" s="1" t="s">
+        <v>17</v>
+      </c>
+      <c r="B3" t="s">
+        <v>21</v>
+      </c>
+      <c r="C3" t="s">
+        <v>24</v>
+      </c>
+      <c r="D3" t="s">
+        <v>17</v>
+      </c>
+      <c r="E3" t="s">
+        <v>24</v>
+      </c>
+      <c r="F3" t="s">
+        <v>22</v>
+      </c>
+      <c r="G3" t="s">
+        <v>23</v>
+      </c>
+      <c r="H3" s="1" t="s">
         <v>2</v>
       </c>
     </row>
-    <row r="4" spans="1:2" ht="30">
+    <row r="4" spans="1:8" ht="30">
       <c r="A4" t="s">
-        <v>21</v>
-      </c>
-      <c r="B4" s="1" t="s">
+        <v>18</v>
+      </c>
+      <c r="B4" t="s">
+        <v>21</v>
+      </c>
+      <c r="C4" t="s">
+        <v>24</v>
+      </c>
+      <c r="D4" t="s">
+        <v>18</v>
+      </c>
+      <c r="E4" t="s">
+        <v>24</v>
+      </c>
+      <c r="F4" t="s">
+        <v>22</v>
+      </c>
+      <c r="G4" t="s">
+        <v>23</v>
+      </c>
+      <c r="H4" s="1" t="s">
         <v>3</v>
       </c>
     </row>
-    <row r="5" spans="1:2">
+    <row r="5" spans="1:8">
       <c r="A5" t="s">
         <v>7</v>
       </c>
-      <c r="B5" s="1" t="s">
+      <c r="B5" t="s">
+        <v>21</v>
+      </c>
+      <c r="C5" t="s">
+        <v>24</v>
+      </c>
+      <c r="D5" t="s">
+        <v>7</v>
+      </c>
+      <c r="E5" t="s">
+        <v>24</v>
+      </c>
+      <c r="F5" t="s">
+        <v>22</v>
+      </c>
+      <c r="G5" t="s">
+        <v>23</v>
+      </c>
+      <c r="H5" s="1" t="s">
         <v>4</v>
       </c>
     </row>
-    <row r="6" spans="1:2">
+    <row r="6" spans="1:8">
       <c r="A6" t="s">
         <v>8</v>
       </c>
-      <c r="B6" s="1" t="s">
+      <c r="B6" t="s">
+        <v>21</v>
+      </c>
+      <c r="C6" t="s">
+        <v>24</v>
+      </c>
+      <c r="D6" t="s">
+        <v>8</v>
+      </c>
+      <c r="E6" t="s">
+        <v>24</v>
+      </c>
+      <c r="F6" t="s">
+        <v>22</v>
+      </c>
+      <c r="G6" t="s">
+        <v>23</v>
+      </c>
+      <c r="H6" s="1" t="s">
         <v>5</v>
       </c>
     </row>
-    <row r="7" spans="1:2">
+    <row r="7" spans="1:8">
       <c r="A7" t="s">
         <v>9</v>
       </c>
-      <c r="B7" s="1" t="s">
+      <c r="B7" t="s">
+        <v>21</v>
+      </c>
+      <c r="C7" t="s">
+        <v>24</v>
+      </c>
+      <c r="D7" t="s">
+        <v>9</v>
+      </c>
+      <c r="E7" t="s">
+        <v>24</v>
+      </c>
+      <c r="F7" t="s">
+        <v>22</v>
+      </c>
+      <c r="G7" t="s">
+        <v>23</v>
+      </c>
+      <c r="H7" s="1" t="s">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="8" spans="1:8">
+      <c r="A8" t="s">
         <v>10</v>
       </c>
-    </row>
-    <row r="8" spans="1:2">
-      <c r="A8" t="s">
+      <c r="B8" t="s">
+        <v>21</v>
+      </c>
+      <c r="C8" t="s">
+        <v>24</v>
+      </c>
+      <c r="D8" t="s">
+        <v>10</v>
+      </c>
+      <c r="E8" t="s">
+        <v>24</v>
+      </c>
+      <c r="F8" t="s">
+        <v>22</v>
+      </c>
+      <c r="G8" t="s">
+        <v>23</v>
+      </c>
+      <c r="H8" s="1" t="s">
         <v>11</v>
       </c>
-      <c r="B8" s="1" t="s">
+    </row>
+    <row r="9" spans="1:8">
+      <c r="A9" t="s">
         <v>12</v>
       </c>
-    </row>
-    <row r="9" spans="1:2">
-      <c r="A9" t="s">
-        <v>13</v>
-      </c>
-      <c r="B9" s="1" t="s">
+      <c r="B9" t="s">
+        <v>21</v>
+      </c>
+      <c r="C9" t="s">
+        <v>24</v>
+      </c>
+      <c r="D9" t="s">
+        <v>12</v>
+      </c>
+      <c r="E9" t="s">
+        <v>24</v>
+      </c>
+      <c r="F9" t="s">
+        <v>22</v>
+      </c>
+      <c r="G9" t="s">
+        <v>23</v>
+      </c>
+      <c r="H9" s="1" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="10" spans="1:8">
+      <c r="A10" t="s">
         <v>15</v>
       </c>
-    </row>
-    <row r="10" spans="1:2">
-      <c r="A10" t="s">
+      <c r="B10" t="s">
+        <v>21</v>
+      </c>
+      <c r="C10" t="s">
+        <v>24</v>
+      </c>
+      <c r="D10" t="s">
+        <v>15</v>
+      </c>
+      <c r="E10" t="s">
+        <v>24</v>
+      </c>
+      <c r="F10" t="s">
+        <v>22</v>
+      </c>
+      <c r="G10" t="s">
+        <v>23</v>
+      </c>
+      <c r="H10" s="1" t="s">
         <v>16</v>
       </c>
-      <c r="B10" s="1" t="s">
-        <v>17</v>
-      </c>
-    </row>
-    <row r="11" spans="1:2">
+    </row>
+    <row r="11" spans="1:8">
       <c r="A11" t="s">
-        <v>22</v>
-      </c>
-      <c r="B11" s="1" t="s">
-        <v>18</v>
-      </c>
-    </row>
-    <row r="12" spans="1:2">
+        <v>27</v>
+      </c>
+      <c r="B11" t="s">
+        <v>21</v>
+      </c>
+      <c r="C11" t="s">
+        <v>24</v>
+      </c>
+      <c r="D11" t="s">
+        <v>27</v>
+      </c>
+      <c r="E11" t="s">
+        <v>24</v>
+      </c>
+      <c r="F11" t="s">
+        <v>22</v>
+      </c>
+      <c r="G11" t="s">
+        <v>23</v>
+      </c>
+      <c r="H11" s="1" t="s">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="12" spans="1:8">
       <c r="A12" t="s">
+        <v>28</v>
+      </c>
+      <c r="B12" t="s">
+        <v>21</v>
+      </c>
+      <c r="C12" t="s">
+        <v>24</v>
+      </c>
+      <c r="D12" t="s">
+        <v>28</v>
+      </c>
+      <c r="E12" t="s">
+        <v>24</v>
+      </c>
+      <c r="F12" t="s">
+        <v>22</v>
+      </c>
+      <c r="G12" t="s">
+        <v>23</v>
+      </c>
+      <c r="H12" s="1" t="s">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="13" spans="1:8">
+      <c r="A13" t="s">
+        <v>29</v>
+      </c>
+      <c r="B13" t="s">
+        <v>21</v>
+      </c>
+      <c r="C13" t="s">
+        <v>24</v>
+      </c>
+      <c r="D13" t="s">
+        <v>29</v>
+      </c>
+      <c r="E13" t="s">
+        <v>24</v>
+      </c>
+      <c r="G13" t="s">
+        <v>23</v>
+      </c>
+      <c r="H13" s="1" t="s">
         <v>19</v>
       </c>
-      <c r="B12" s="1" t="s">
-        <v>25</v>
-      </c>
-    </row>
-    <row r="13" spans="1:2">
-      <c r="A13" t="s">
-        <v>23</v>
-      </c>
-      <c r="B13" s="1" t="s">
-        <v>24</v>
-      </c>
-    </row>
-    <row r="16" spans="1:2" ht="20" customHeight="1"/>
+    </row>
+    <row r="16" spans="1:8" ht="20" customHeight="1"/>
     <row r="20" ht="18" customHeight="1"/>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>

--- a/design/prompts.xlsx
+++ b/design/prompts.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="5" lowestEdited="5" rupBuild="25306"/>
   <workbookPr showInkAnnotation="0" autoCompressPictures="0"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="22620" windowHeight="9780" tabRatio="500"/>
+    <workbookView xWindow="4840" yWindow="-15260" windowWidth="22620" windowHeight="11960" tabRatio="500"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -19,7 +19,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="97" uniqueCount="30">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="98" uniqueCount="42">
   <si>
     <t>Location</t>
   </si>
@@ -33,30 +33,12 @@
     <t>This game will help you learn with your partner. One of you will be the red partner and one will be the blue partner. You decide!</t>
   </si>
   <si>
-    <t>Blue Partner</t>
-  </si>
-  <si>
-    <t>Red Partner</t>
-  </si>
-  <si>
     <t>ON_VERTICAL_STARTUP</t>
   </si>
   <si>
-    <t>BLUE_PARTNER</t>
-  </si>
-  <si>
-    <t>RED_PARTNER</t>
-  </si>
-  <si>
-    <t>PICK_UP_IPAD</t>
-  </si>
-  <si>
     <t>READ_THE_WORD</t>
   </si>
   <si>
-    <t xml:space="preserve">Great! Now read the word you see out loud so your partner can hear it. </t>
-  </si>
-  <si>
     <t>PUT_DOWN_THE_IPAD</t>
   </si>
   <si>
@@ -66,49 +48,103 @@
     <t>When you have read the word, place the iPad flat in front of you again.</t>
   </si>
   <si>
-    <t>ON_SCREEN_FACING_DOWN</t>
-  </si>
-  <si>
-    <t>Turn me over please!</t>
-  </si>
-  <si>
     <t>ON_STARTUP</t>
   </si>
   <si>
     <t>ON_INTRO</t>
   </si>
   <si>
-    <t>[partner] the word you chose was [ANSWER]</t>
-  </si>
-  <si>
-    <t>[partner] The right answer was [ANSWER]</t>
-  </si>
-  <si>
-    <t>:</t>
-  </si>
-  <si>
-    <t>,</t>
-  </si>
-  <si>
     <t>//</t>
   </si>
   <si>
     <t>"</t>
   </si>
   <si>
-    <t>[partner] now pick up the iPad and hold it so you can see my face but your partner can't.</t>
-  </si>
-  <si>
-    <t>[partner ]now find the word your partner read to you and tap it with your finger.</t>
-  </si>
-  <si>
-    <t>SELECT_STIMULUS</t>
-  </si>
-  <si>
     <t>CORRECT_STIMULUS</t>
   </si>
   <si>
     <t>INCORRECT_SELECTION</t>
+  </si>
+  <si>
+    <t>RED_PICK_UP_IPAD</t>
+  </si>
+  <si>
+    <t>BLUE_PICK_UP_IPAD</t>
+  </si>
+  <si>
+    <t>Red partner now pick up the iPad and hold it so you can see my face but your partner can't.</t>
+  </si>
+  <si>
+    <t>Blue partner now pick up the iPad and hold it so you can see my face but your partner can't.</t>
+  </si>
+  <si>
+    <t>RED_SELECT_STIMULUS</t>
+  </si>
+  <si>
+    <t>BLUE_SELECT_STIMULUS</t>
+  </si>
+  <si>
+    <t>Red partner now find the word your partner read to you and tap it with your finger.</t>
+  </si>
+  <si>
+    <t>Blue partner now find the word your partner read to you and tap it with your finger.</t>
+  </si>
+  <si>
+    <t>CORRECT_SELECTION</t>
+  </si>
+  <si>
+    <t>The right answer was [ANSWER]</t>
+  </si>
+  <si>
+    <t>The word you chose was [ANSWER]</t>
+  </si>
+  <si>
+    <t>Great! The right answer was [ANSWER]</t>
+  </si>
+  <si>
+    <t>Great! Now read the word you see out loud so your partner can hear it. When you have read the word, place the iPad flat in front of you again.</t>
+  </si>
+  <si>
+    <t>p_ON_INTRO</t>
+  </si>
+  <si>
+    <t>p_ON_VERTICAL_STARTUP</t>
+  </si>
+  <si>
+    <t>p_ON_STARTUP</t>
+  </si>
+  <si>
+    <t>p_RED_PICK_UP_IPAD</t>
+  </si>
+  <si>
+    <t>p_BLUE_PICK_UP_IPAD</t>
+  </si>
+  <si>
+    <t>p_READ_THE_WORD</t>
+  </si>
+  <si>
+    <t>p_PUT_DOWN_THE_IPAD</t>
+  </si>
+  <si>
+    <t>p_RED_SELECT_STIMULUS</t>
+  </si>
+  <si>
+    <t>p_BLUE_SELECT_STIMULUS</t>
+  </si>
+  <si>
+    <t>p_CORRECT_STIMULUS</t>
+  </si>
+  <si>
+    <t>p_INCORRECT_SELECTION</t>
+  </si>
+  <si>
+    <t>p_CORRECT_SELECTION</t>
+  </si>
+  <si>
+    <t>=</t>
+  </si>
+  <si>
+    <t>;</t>
   </si>
 </sst>
 </file>
@@ -157,8 +193,16 @@
       <diagonal/>
     </border>
   </borders>
-  <cellStyleXfs count="37">
+  <cellStyleXfs count="45">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
@@ -202,7 +246,7 @@
       <alignment wrapText="1"/>
     </xf>
   </cellXfs>
-  <cellStyles count="37">
+  <cellStyles count="45">
     <cellStyle name="Followed Hyperlink" xfId="2" builtinId="9" hidden="1"/>
     <cellStyle name="Followed Hyperlink" xfId="4" builtinId="9" hidden="1"/>
     <cellStyle name="Followed Hyperlink" xfId="6" builtinId="9" hidden="1"/>
@@ -221,6 +265,10 @@
     <cellStyle name="Followed Hyperlink" xfId="32" builtinId="9" hidden="1"/>
     <cellStyle name="Followed Hyperlink" xfId="34" builtinId="9" hidden="1"/>
     <cellStyle name="Followed Hyperlink" xfId="36" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="38" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="40" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="42" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="44" builtinId="9" hidden="1"/>
     <cellStyle name="Hyperlink" xfId="1" builtinId="8" hidden="1"/>
     <cellStyle name="Hyperlink" xfId="3" builtinId="8" hidden="1"/>
     <cellStyle name="Hyperlink" xfId="5" builtinId="8" hidden="1"/>
@@ -239,6 +287,10 @@
     <cellStyle name="Hyperlink" xfId="31" builtinId="8" hidden="1"/>
     <cellStyle name="Hyperlink" xfId="33" builtinId="8" hidden="1"/>
     <cellStyle name="Hyperlink" xfId="35" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="37" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="39" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="41" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="43" builtinId="8" hidden="1"/>
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
   <dxfs count="0"/>
@@ -568,10 +620,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:H20"/>
+  <dimension ref="A1:H19"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A11" workbookViewId="0">
-      <selection activeCell="D12" sqref="D12"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="F16" sqref="F16"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0"/>
@@ -594,51 +646,51 @@
     </row>
     <row r="2" spans="1:8" ht="24" customHeight="1">
       <c r="A2" t="s">
-        <v>6</v>
+        <v>29</v>
       </c>
       <c r="B2" t="s">
-        <v>21</v>
+        <v>40</v>
       </c>
       <c r="C2" t="s">
-        <v>24</v>
+        <v>12</v>
       </c>
       <c r="D2" t="s">
-        <v>6</v>
+        <v>4</v>
       </c>
       <c r="E2" t="s">
-        <v>24</v>
+        <v>12</v>
       </c>
       <c r="F2" t="s">
-        <v>22</v>
+        <v>41</v>
       </c>
       <c r="G2" t="s">
-        <v>23</v>
+        <v>11</v>
       </c>
       <c r="H2" s="1" t="s">
-        <v>13</v>
+        <v>7</v>
       </c>
     </row>
     <row r="3" spans="1:8">
       <c r="A3" t="s">
-        <v>17</v>
+        <v>30</v>
       </c>
       <c r="B3" t="s">
-        <v>21</v>
+        <v>40</v>
       </c>
       <c r="C3" t="s">
-        <v>24</v>
+        <v>12</v>
       </c>
       <c r="D3" t="s">
-        <v>17</v>
+        <v>9</v>
       </c>
       <c r="E3" t="s">
-        <v>24</v>
+        <v>12</v>
       </c>
       <c r="F3" t="s">
-        <v>22</v>
+        <v>41</v>
       </c>
       <c r="G3" t="s">
-        <v>23</v>
+        <v>11</v>
       </c>
       <c r="H3" s="1" t="s">
         <v>2</v>
@@ -646,25 +698,25 @@
     </row>
     <row r="4" spans="1:8" ht="30">
       <c r="A4" t="s">
-        <v>18</v>
+        <v>28</v>
       </c>
       <c r="B4" t="s">
-        <v>21</v>
+        <v>40</v>
       </c>
       <c r="C4" t="s">
-        <v>24</v>
+        <v>12</v>
       </c>
       <c r="D4" t="s">
-        <v>18</v>
+        <v>10</v>
       </c>
       <c r="E4" t="s">
-        <v>24</v>
+        <v>12</v>
       </c>
       <c r="F4" t="s">
-        <v>22</v>
+        <v>41</v>
       </c>
       <c r="G4" t="s">
-        <v>23</v>
+        <v>11</v>
       </c>
       <c r="H4" s="1" t="s">
         <v>3</v>
@@ -672,237 +724,240 @@
     </row>
     <row r="5" spans="1:8">
       <c r="A5" t="s">
-        <v>7</v>
+        <v>31</v>
       </c>
       <c r="B5" t="s">
-        <v>21</v>
+        <v>40</v>
       </c>
       <c r="C5" t="s">
-        <v>24</v>
+        <v>12</v>
       </c>
       <c r="D5" t="s">
-        <v>7</v>
+        <v>15</v>
       </c>
       <c r="E5" t="s">
-        <v>24</v>
+        <v>12</v>
       </c>
       <c r="F5" t="s">
-        <v>22</v>
+        <v>41</v>
       </c>
       <c r="G5" t="s">
-        <v>23</v>
+        <v>11</v>
       </c>
       <c r="H5" s="1" t="s">
-        <v>4</v>
+        <v>17</v>
       </c>
     </row>
     <row r="6" spans="1:8">
       <c r="A6" t="s">
-        <v>8</v>
+        <v>32</v>
       </c>
       <c r="B6" t="s">
-        <v>21</v>
+        <v>40</v>
       </c>
       <c r="C6" t="s">
-        <v>24</v>
+        <v>12</v>
       </c>
       <c r="D6" t="s">
-        <v>8</v>
+        <v>16</v>
       </c>
       <c r="E6" t="s">
-        <v>24</v>
+        <v>12</v>
       </c>
       <c r="F6" t="s">
-        <v>22</v>
+        <v>41</v>
       </c>
       <c r="G6" t="s">
-        <v>23</v>
+        <v>11</v>
       </c>
       <c r="H6" s="1" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="7" spans="1:8" ht="30">
+      <c r="A7" t="s">
+        <v>33</v>
+      </c>
+      <c r="B7" t="s">
+        <v>40</v>
+      </c>
+      <c r="C7" t="s">
+        <v>12</v>
+      </c>
+      <c r="D7" t="s">
         <v>5</v>
       </c>
-    </row>
-    <row r="7" spans="1:8">
-      <c r="A7" t="s">
-        <v>9</v>
-      </c>
-      <c r="B7" t="s">
-        <v>21</v>
-      </c>
-      <c r="C7" t="s">
-        <v>24</v>
-      </c>
-      <c r="D7" t="s">
-        <v>9</v>
-      </c>
       <c r="E7" t="s">
-        <v>24</v>
+        <v>12</v>
       </c>
       <c r="F7" t="s">
-        <v>22</v>
+        <v>41</v>
       </c>
       <c r="G7" t="s">
-        <v>23</v>
+        <v>11</v>
       </c>
       <c r="H7" s="1" t="s">
-        <v>25</v>
+        <v>27</v>
       </c>
     </row>
     <row r="8" spans="1:8">
       <c r="A8" t="s">
-        <v>10</v>
+        <v>34</v>
       </c>
       <c r="B8" t="s">
-        <v>21</v>
+        <v>40</v>
       </c>
       <c r="C8" t="s">
-        <v>24</v>
+        <v>12</v>
       </c>
       <c r="D8" t="s">
-        <v>10</v>
+        <v>6</v>
       </c>
       <c r="E8" t="s">
-        <v>24</v>
+        <v>12</v>
       </c>
       <c r="F8" t="s">
-        <v>22</v>
+        <v>41</v>
       </c>
       <c r="G8" t="s">
-        <v>23</v>
+        <v>11</v>
       </c>
       <c r="H8" s="1" t="s">
-        <v>11</v>
+        <v>8</v>
       </c>
     </row>
     <row r="9" spans="1:8">
       <c r="A9" t="s">
-        <v>12</v>
+        <v>35</v>
       </c>
       <c r="B9" t="s">
+        <v>40</v>
+      </c>
+      <c r="C9" t="s">
+        <v>12</v>
+      </c>
+      <c r="D9" t="s">
+        <v>19</v>
+      </c>
+      <c r="E9" t="s">
+        <v>12</v>
+      </c>
+      <c r="F9" t="s">
+        <v>41</v>
+      </c>
+      <c r="G9" t="s">
+        <v>11</v>
+      </c>
+      <c r="H9" s="1" t="s">
         <v>21</v>
-      </c>
-      <c r="C9" t="s">
-        <v>24</v>
-      </c>
-      <c r="D9" t="s">
-        <v>12</v>
-      </c>
-      <c r="E9" t="s">
-        <v>24</v>
-      </c>
-      <c r="F9" t="s">
-        <v>22</v>
-      </c>
-      <c r="G9" t="s">
-        <v>23</v>
-      </c>
-      <c r="H9" s="1" t="s">
-        <v>14</v>
       </c>
     </row>
     <row r="10" spans="1:8">
       <c r="A10" t="s">
-        <v>15</v>
+        <v>36</v>
       </c>
       <c r="B10" t="s">
-        <v>21</v>
+        <v>40</v>
       </c>
       <c r="C10" t="s">
-        <v>24</v>
+        <v>12</v>
       </c>
       <c r="D10" t="s">
-        <v>15</v>
+        <v>20</v>
       </c>
       <c r="E10" t="s">
-        <v>24</v>
+        <v>12</v>
       </c>
       <c r="F10" t="s">
+        <v>41</v>
+      </c>
+      <c r="G10" t="s">
+        <v>11</v>
+      </c>
+      <c r="H10" s="1" t="s">
         <v>22</v>
-      </c>
-      <c r="G10" t="s">
-        <v>23</v>
-      </c>
-      <c r="H10" s="1" t="s">
-        <v>16</v>
       </c>
     </row>
     <row r="11" spans="1:8">
       <c r="A11" t="s">
-        <v>27</v>
+        <v>37</v>
       </c>
       <c r="B11" t="s">
-        <v>21</v>
+        <v>40</v>
       </c>
       <c r="C11" t="s">
+        <v>12</v>
+      </c>
+      <c r="D11" t="s">
+        <v>13</v>
+      </c>
+      <c r="E11" t="s">
+        <v>12</v>
+      </c>
+      <c r="F11" t="s">
+        <v>41</v>
+      </c>
+      <c r="G11" t="s">
+        <v>11</v>
+      </c>
+      <c r="H11" s="1" t="s">
         <v>24</v>
-      </c>
-      <c r="D11" t="s">
-        <v>27</v>
-      </c>
-      <c r="E11" t="s">
-        <v>24</v>
-      </c>
-      <c r="F11" t="s">
-        <v>22</v>
-      </c>
-      <c r="G11" t="s">
-        <v>23</v>
-      </c>
-      <c r="H11" s="1" t="s">
-        <v>26</v>
       </c>
     </row>
     <row r="12" spans="1:8">
       <c r="A12" t="s">
-        <v>28</v>
+        <v>38</v>
       </c>
       <c r="B12" t="s">
-        <v>21</v>
+        <v>40</v>
       </c>
       <c r="C12" t="s">
-        <v>24</v>
+        <v>12</v>
       </c>
       <c r="D12" t="s">
-        <v>28</v>
+        <v>14</v>
       </c>
       <c r="E12" t="s">
-        <v>24</v>
+        <v>12</v>
       </c>
       <c r="F12" t="s">
-        <v>22</v>
+        <v>41</v>
       </c>
       <c r="G12" t="s">
-        <v>23</v>
+        <v>11</v>
       </c>
       <c r="H12" s="1" t="s">
-        <v>20</v>
+        <v>25</v>
       </c>
     </row>
     <row r="13" spans="1:8">
       <c r="A13" t="s">
-        <v>29</v>
+        <v>39</v>
       </c>
       <c r="B13" t="s">
-        <v>21</v>
+        <v>40</v>
       </c>
       <c r="C13" t="s">
-        <v>24</v>
+        <v>12</v>
       </c>
       <c r="D13" t="s">
-        <v>29</v>
+        <v>23</v>
       </c>
       <c r="E13" t="s">
-        <v>24</v>
+        <v>12</v>
+      </c>
+      <c r="F13" t="s">
+        <v>41</v>
       </c>
       <c r="G13" t="s">
-        <v>23</v>
+        <v>11</v>
       </c>
       <c r="H13" s="1" t="s">
-        <v>19</v>
-      </c>
-    </row>
-    <row r="16" spans="1:8" ht="20" customHeight="1"/>
-    <row r="20" ht="18" customHeight="1"/>
+        <v>26</v>
+      </c>
+    </row>
+    <row r="15" spans="1:8" ht="20" customHeight="1"/>
+    <row r="19" ht="18" customHeight="1"/>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
   <pageSetup orientation="portrait" horizontalDpi="4294967292" verticalDpi="4294967292"/>

--- a/design/prompts.xlsx
+++ b/design/prompts.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="5" lowestEdited="5" rupBuild="25306"/>
   <workbookPr showInkAnnotation="0" autoCompressPictures="0"/>
   <bookViews>
-    <workbookView xWindow="4840" yWindow="-15260" windowWidth="22620" windowHeight="11960" tabRatio="500"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="25600" windowHeight="16060" tabRatio="500"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -30,9 +30,6 @@
     <t>Welcome to MC Partner. Is this the first time you have played? Tap the green Yes or the red No</t>
   </si>
   <si>
-    <t>This game will help you learn with your partner. One of you will be the red partner and one will be the blue partner. You decide!</t>
-  </si>
-  <si>
     <t>ON_VERTICAL_STARTUP</t>
   </si>
   <si>
@@ -72,12 +69,6 @@
     <t>BLUE_PICK_UP_IPAD</t>
   </si>
   <si>
-    <t>Red partner now pick up the iPad and hold it so you can see my face but your partner can't.</t>
-  </si>
-  <si>
-    <t>Blue partner now pick up the iPad and hold it so you can see my face but your partner can't.</t>
-  </si>
-  <si>
     <t>RED_SELECT_STIMULUS</t>
   </si>
   <si>
@@ -99,12 +90,6 @@
     <t>The word you chose was [ANSWER]</t>
   </si>
   <si>
-    <t>Great! The right answer was [ANSWER]</t>
-  </si>
-  <si>
-    <t>Great! Now read the word you see out loud so your partner can hear it. When you have read the word, place the iPad flat in front of you again.</t>
-  </si>
-  <si>
     <t>p_ON_INTRO</t>
   </si>
   <si>
@@ -145,6 +130,21 @@
   </si>
   <si>
     <t>;</t>
+  </si>
+  <si>
+    <t>Red partner, pick up the iPad and hold it in front of your face so your partner is looking at the back of the iPad.</t>
+  </si>
+  <si>
+    <t>Blue partner,  pick up the iPad and hold it in front of your face so your partner is looking at the back of the iPad.</t>
+  </si>
+  <si>
+    <t>OK, Now read the word you see out loud so your partner can hear it. When you have read the word, place the iPad flat in front of you again.</t>
+  </si>
+  <si>
+    <t>This game will help you and your partner learn to read. One of you will be the red partner and one will be the blue partner. You decide together who will be blue and who will be red!</t>
+  </si>
+  <si>
+    <t>You're right! The answer was [ANSWER]</t>
   </si>
 </sst>
 </file>
@@ -623,7 +623,7 @@
   <dimension ref="A1:H19"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="F16" sqref="F16"/>
+      <selection activeCell="H13" sqref="H13"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0"/>
@@ -646,51 +646,51 @@
     </row>
     <row r="2" spans="1:8" ht="24" customHeight="1">
       <c r="A2" t="s">
-        <v>29</v>
+        <v>24</v>
       </c>
       <c r="B2" t="s">
-        <v>40</v>
+        <v>35</v>
       </c>
       <c r="C2" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="D2" t="s">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="E2" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="F2" t="s">
-        <v>41</v>
+        <v>36</v>
       </c>
       <c r="G2" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="H2" s="1" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
     </row>
     <row r="3" spans="1:8">
       <c r="A3" t="s">
-        <v>30</v>
+        <v>25</v>
       </c>
       <c r="B3" t="s">
-        <v>40</v>
+        <v>35</v>
       </c>
       <c r="C3" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="D3" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="E3" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="F3" t="s">
-        <v>41</v>
+        <v>36</v>
       </c>
       <c r="G3" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="H3" s="1" t="s">
         <v>2</v>
@@ -698,262 +698,262 @@
     </row>
     <row r="4" spans="1:8" ht="30">
       <c r="A4" t="s">
-        <v>28</v>
+        <v>23</v>
       </c>
       <c r="B4" t="s">
+        <v>35</v>
+      </c>
+      <c r="C4" t="s">
+        <v>11</v>
+      </c>
+      <c r="D4" t="s">
+        <v>9</v>
+      </c>
+      <c r="E4" t="s">
+        <v>11</v>
+      </c>
+      <c r="F4" t="s">
+        <v>36</v>
+      </c>
+      <c r="G4" t="s">
+        <v>10</v>
+      </c>
+      <c r="H4" s="1" t="s">
         <v>40</v>
       </c>
-      <c r="C4" t="s">
-        <v>12</v>
-      </c>
-      <c r="D4" t="s">
-        <v>10</v>
-      </c>
-      <c r="E4" t="s">
-        <v>12</v>
-      </c>
-      <c r="F4" t="s">
-        <v>41</v>
-      </c>
-      <c r="G4" t="s">
-        <v>11</v>
-      </c>
-      <c r="H4" s="1" t="s">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="5" spans="1:8">
+    </row>
+    <row r="5" spans="1:8" ht="30">
       <c r="A5" t="s">
-        <v>31</v>
+        <v>26</v>
       </c>
       <c r="B5" t="s">
-        <v>40</v>
+        <v>35</v>
       </c>
       <c r="C5" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="D5" t="s">
+        <v>14</v>
+      </c>
+      <c r="E5" t="s">
+        <v>11</v>
+      </c>
+      <c r="F5" t="s">
+        <v>36</v>
+      </c>
+      <c r="G5" t="s">
+        <v>10</v>
+      </c>
+      <c r="H5" s="1" t="s">
+        <v>37</v>
+      </c>
+    </row>
+    <row r="6" spans="1:8" ht="30">
+      <c r="A6" t="s">
+        <v>27</v>
+      </c>
+      <c r="B6" t="s">
+        <v>35</v>
+      </c>
+      <c r="C6" t="s">
+        <v>11</v>
+      </c>
+      <c r="D6" t="s">
         <v>15</v>
       </c>
-      <c r="E5" t="s">
-        <v>12</v>
-      </c>
-      <c r="F5" t="s">
-        <v>41</v>
-      </c>
-      <c r="G5" t="s">
-        <v>11</v>
-      </c>
-      <c r="H5" s="1" t="s">
-        <v>17</v>
-      </c>
-    </row>
-    <row r="6" spans="1:8">
-      <c r="A6" t="s">
-        <v>32</v>
-      </c>
-      <c r="B6" t="s">
-        <v>40</v>
-      </c>
-      <c r="C6" t="s">
-        <v>12</v>
-      </c>
-      <c r="D6" t="s">
-        <v>16</v>
-      </c>
       <c r="E6" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="F6" t="s">
-        <v>41</v>
+        <v>36</v>
       </c>
       <c r="G6" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="H6" s="1" t="s">
-        <v>18</v>
+        <v>38</v>
       </c>
     </row>
     <row r="7" spans="1:8" ht="30">
       <c r="A7" t="s">
-        <v>33</v>
+        <v>28</v>
       </c>
       <c r="B7" t="s">
-        <v>40</v>
+        <v>35</v>
       </c>
       <c r="C7" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="D7" t="s">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="E7" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="F7" t="s">
-        <v>41</v>
+        <v>36</v>
       </c>
       <c r="G7" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="H7" s="1" t="s">
-        <v>27</v>
+        <v>39</v>
       </c>
     </row>
     <row r="8" spans="1:8">
       <c r="A8" t="s">
-        <v>34</v>
+        <v>29</v>
       </c>
       <c r="B8" t="s">
-        <v>40</v>
+        <v>35</v>
       </c>
       <c r="C8" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="D8" t="s">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="E8" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="F8" t="s">
-        <v>41</v>
+        <v>36</v>
       </c>
       <c r="G8" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="H8" s="1" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
     </row>
     <row r="9" spans="1:8">
       <c r="A9" t="s">
-        <v>35</v>
+        <v>30</v>
       </c>
       <c r="B9" t="s">
-        <v>40</v>
+        <v>35</v>
       </c>
       <c r="C9" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="D9" t="s">
-        <v>19</v>
+        <v>16</v>
       </c>
       <c r="E9" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="F9" t="s">
-        <v>41</v>
+        <v>36</v>
       </c>
       <c r="G9" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="H9" s="1" t="s">
-        <v>21</v>
+        <v>18</v>
       </c>
     </row>
     <row r="10" spans="1:8">
       <c r="A10" t="s">
-        <v>36</v>
+        <v>31</v>
       </c>
       <c r="B10" t="s">
-        <v>40</v>
+        <v>35</v>
       </c>
       <c r="C10" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="D10" t="s">
-        <v>20</v>
+        <v>17</v>
       </c>
       <c r="E10" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="F10" t="s">
-        <v>41</v>
+        <v>36</v>
       </c>
       <c r="G10" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="H10" s="1" t="s">
-        <v>22</v>
+        <v>19</v>
       </c>
     </row>
     <row r="11" spans="1:8">
       <c r="A11" t="s">
-        <v>37</v>
+        <v>32</v>
       </c>
       <c r="B11" t="s">
-        <v>40</v>
+        <v>35</v>
       </c>
       <c r="C11" t="s">
+        <v>11</v>
+      </c>
+      <c r="D11" t="s">
         <v>12</v>
       </c>
-      <c r="D11" t="s">
-        <v>13</v>
-      </c>
       <c r="E11" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="F11" t="s">
-        <v>41</v>
+        <v>36</v>
       </c>
       <c r="G11" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="H11" s="1" t="s">
-        <v>24</v>
+        <v>21</v>
       </c>
     </row>
     <row r="12" spans="1:8">
       <c r="A12" t="s">
-        <v>38</v>
+        <v>33</v>
       </c>
       <c r="B12" t="s">
-        <v>40</v>
+        <v>35</v>
       </c>
       <c r="C12" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="D12" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="E12" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="F12" t="s">
-        <v>41</v>
+        <v>36</v>
       </c>
       <c r="G12" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="H12" s="1" t="s">
-        <v>25</v>
+        <v>22</v>
       </c>
     </row>
     <row r="13" spans="1:8">
       <c r="A13" t="s">
-        <v>39</v>
+        <v>34</v>
       </c>
       <c r="B13" t="s">
-        <v>40</v>
+        <v>35</v>
       </c>
       <c r="C13" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="D13" t="s">
-        <v>23</v>
+        <v>20</v>
       </c>
       <c r="E13" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="F13" t="s">
+        <v>36</v>
+      </c>
+      <c r="G13" t="s">
+        <v>10</v>
+      </c>
+      <c r="H13" s="1" t="s">
         <v>41</v>
-      </c>
-      <c r="G13" t="s">
-        <v>11</v>
-      </c>
-      <c r="H13" s="1" t="s">
-        <v>26</v>
       </c>
     </row>
     <row r="15" spans="1:8" ht="20" customHeight="1"/>

--- a/design/prompts.xlsx
+++ b/design/prompts.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="5" lowestEdited="5" rupBuild="25306"/>
   <workbookPr showInkAnnotation="0" autoCompressPictures="0"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="25600" windowHeight="16060" tabRatio="500"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="12660" windowHeight="10980" tabRatio="500"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -19,7 +19,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="98" uniqueCount="42">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="74" uniqueCount="33">
   <si>
     <t>Location</t>
   </si>
@@ -27,27 +27,15 @@
     <t>Prompt</t>
   </si>
   <si>
-    <t>Welcome to MC Partner. Is this the first time you have played? Tap the green Yes or the red No</t>
-  </si>
-  <si>
-    <t>ON_VERTICAL_STARTUP</t>
-  </si>
-  <si>
     <t>READ_THE_WORD</t>
   </si>
   <si>
     <t>PUT_DOWN_THE_IPAD</t>
   </si>
   <si>
-    <t>Please place the iPad flat in front of you to begin.</t>
-  </si>
-  <si>
     <t>When you have read the word, place the iPad flat in front of you again.</t>
   </si>
   <si>
-    <t>ON_STARTUP</t>
-  </si>
-  <si>
     <t>ON_INTRO</t>
   </si>
   <si>
@@ -81,9 +69,6 @@
     <t>Blue partner now find the word your partner read to you and tap it with your finger.</t>
   </si>
   <si>
-    <t>CORRECT_SELECTION</t>
-  </si>
-  <si>
     <t>The right answer was [ANSWER]</t>
   </si>
   <si>
@@ -93,12 +78,6 @@
     <t>p_ON_INTRO</t>
   </si>
   <si>
-    <t>p_ON_VERTICAL_STARTUP</t>
-  </si>
-  <si>
-    <t>p_ON_STARTUP</t>
-  </si>
-  <si>
     <t>p_RED_PICK_UP_IPAD</t>
   </si>
   <si>
@@ -123,9 +102,6 @@
     <t>p_INCORRECT_SELECTION</t>
   </si>
   <si>
-    <t>p_CORRECT_SELECTION</t>
-  </si>
-  <si>
     <t>=</t>
   </si>
   <si>
@@ -142,9 +118,6 @@
   </si>
   <si>
     <t>This game will help you and your partner learn to read. One of you will be the red partner and one will be the blue partner. You decide together who will be blue and who will be red!</t>
-  </si>
-  <si>
-    <t>You're right! The answer was [ANSWER]</t>
   </si>
 </sst>
 </file>
@@ -176,12 +149,18 @@
       <scheme val="minor"/>
     </font>
   </fonts>
-  <fills count="2">
+  <fills count="3">
     <fill>
       <patternFill patternType="none"/>
     </fill>
     <fill>
       <patternFill patternType="gray125"/>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFF00"/>
+        <bgColor indexed="64"/>
+      </patternFill>
     </fill>
   </fills>
   <borders count="1">
@@ -240,9 +219,13 @@
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="2">
+  <cellXfs count="4">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1"/>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
   </cellXfs>
@@ -620,10 +603,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:H19"/>
+  <dimension ref="A1:H16"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="H13" sqref="H13"/>
+      <selection activeCell="D4" sqref="D4"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0"/>
@@ -644,320 +627,242 @@
         <v>1</v>
       </c>
     </row>
-    <row r="2" spans="1:8" ht="24" customHeight="1">
-      <c r="A2" t="s">
-        <v>24</v>
-      </c>
-      <c r="B2" t="s">
-        <v>35</v>
-      </c>
-      <c r="C2" t="s">
+    <row r="2" spans="1:8" s="2" customFormat="1" ht="30">
+      <c r="A2" s="2" t="s">
+        <v>18</v>
+      </c>
+      <c r="B2" s="2" t="s">
+        <v>27</v>
+      </c>
+      <c r="C2" s="2" t="s">
+        <v>7</v>
+      </c>
+      <c r="D2" s="2" t="s">
+        <v>5</v>
+      </c>
+      <c r="E2" s="2" t="s">
+        <v>7</v>
+      </c>
+      <c r="F2" s="2" t="s">
+        <v>28</v>
+      </c>
+      <c r="G2" s="2" t="s">
+        <v>6</v>
+      </c>
+      <c r="H2" s="3" t="s">
+        <v>32</v>
+      </c>
+    </row>
+    <row r="3" spans="1:8" s="2" customFormat="1" ht="30">
+      <c r="A3" s="2" t="s">
+        <v>19</v>
+      </c>
+      <c r="B3" s="2" t="s">
+        <v>27</v>
+      </c>
+      <c r="C3" s="2" t="s">
+        <v>7</v>
+      </c>
+      <c r="D3" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="E3" s="2" t="s">
+        <v>7</v>
+      </c>
+      <c r="F3" s="2" t="s">
+        <v>28</v>
+      </c>
+      <c r="G3" s="2" t="s">
+        <v>6</v>
+      </c>
+      <c r="H3" s="3" t="s">
+        <v>29</v>
+      </c>
+    </row>
+    <row r="4" spans="1:8" s="2" customFormat="1" ht="30">
+      <c r="A4" s="2" t="s">
+        <v>20</v>
+      </c>
+      <c r="B4" s="2" t="s">
+        <v>27</v>
+      </c>
+      <c r="C4" s="2" t="s">
+        <v>7</v>
+      </c>
+      <c r="D4" s="2" t="s">
         <v>11</v>
       </c>
-      <c r="D2" t="s">
+      <c r="E4" s="2" t="s">
+        <v>7</v>
+      </c>
+      <c r="F4" s="2" t="s">
+        <v>28</v>
+      </c>
+      <c r="G4" s="2" t="s">
+        <v>6</v>
+      </c>
+      <c r="H4" s="3" t="s">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="5" spans="1:8" s="2" customFormat="1" ht="30">
+      <c r="A5" s="2" t="s">
+        <v>21</v>
+      </c>
+      <c r="B5" s="2" t="s">
+        <v>27</v>
+      </c>
+      <c r="C5" s="2" t="s">
+        <v>7</v>
+      </c>
+      <c r="D5" s="2" t="s">
+        <v>2</v>
+      </c>
+      <c r="E5" s="2" t="s">
+        <v>7</v>
+      </c>
+      <c r="F5" s="2" t="s">
+        <v>28</v>
+      </c>
+      <c r="G5" s="2" t="s">
+        <v>6</v>
+      </c>
+      <c r="H5" s="3" t="s">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="6" spans="1:8">
+      <c r="A6" t="s">
+        <v>22</v>
+      </c>
+      <c r="B6" t="s">
+        <v>27</v>
+      </c>
+      <c r="C6" t="s">
+        <v>7</v>
+      </c>
+      <c r="D6" t="s">
         <v>3</v>
       </c>
-      <c r="E2" t="s">
-        <v>11</v>
-      </c>
-      <c r="F2" t="s">
-        <v>36</v>
-      </c>
-      <c r="G2" t="s">
-        <v>10</v>
-      </c>
-      <c r="H2" s="1" t="s">
+      <c r="E6" t="s">
+        <v>7</v>
+      </c>
+      <c r="F6" t="s">
+        <v>28</v>
+      </c>
+      <c r="G6" t="s">
         <v>6</v>
       </c>
-    </row>
-    <row r="3" spans="1:8">
-      <c r="A3" t="s">
-        <v>25</v>
-      </c>
-      <c r="B3" t="s">
-        <v>35</v>
-      </c>
-      <c r="C3" t="s">
-        <v>11</v>
-      </c>
-      <c r="D3" t="s">
-        <v>8</v>
-      </c>
-      <c r="E3" t="s">
-        <v>11</v>
-      </c>
-      <c r="F3" t="s">
-        <v>36</v>
-      </c>
-      <c r="G3" t="s">
-        <v>10</v>
-      </c>
-      <c r="H3" s="1" t="s">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="4" spans="1:8" ht="30">
-      <c r="A4" t="s">
+      <c r="H6" s="1" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="7" spans="1:8">
+      <c r="A7" t="s">
         <v>23</v>
       </c>
-      <c r="B4" t="s">
-        <v>35</v>
-      </c>
-      <c r="C4" t="s">
-        <v>11</v>
-      </c>
-      <c r="D4" t="s">
-        <v>9</v>
-      </c>
-      <c r="E4" t="s">
-        <v>11</v>
-      </c>
-      <c r="F4" t="s">
-        <v>36</v>
-      </c>
-      <c r="G4" t="s">
-        <v>10</v>
-      </c>
-      <c r="H4" s="1" t="s">
-        <v>40</v>
-      </c>
-    </row>
-    <row r="5" spans="1:8" ht="30">
-      <c r="A5" t="s">
-        <v>26</v>
-      </c>
-      <c r="B5" t="s">
-        <v>35</v>
-      </c>
-      <c r="C5" t="s">
-        <v>11</v>
-      </c>
-      <c r="D5" t="s">
+      <c r="B7" t="s">
+        <v>27</v>
+      </c>
+      <c r="C7" t="s">
+        <v>7</v>
+      </c>
+      <c r="D7" t="s">
+        <v>12</v>
+      </c>
+      <c r="E7" t="s">
+        <v>7</v>
+      </c>
+      <c r="F7" t="s">
+        <v>28</v>
+      </c>
+      <c r="G7" t="s">
+        <v>6</v>
+      </c>
+      <c r="H7" s="1" t="s">
         <v>14</v>
-      </c>
-      <c r="E5" t="s">
-        <v>11</v>
-      </c>
-      <c r="F5" t="s">
-        <v>36</v>
-      </c>
-      <c r="G5" t="s">
-        <v>10</v>
-      </c>
-      <c r="H5" s="1" t="s">
-        <v>37</v>
-      </c>
-    </row>
-    <row r="6" spans="1:8" ht="30">
-      <c r="A6" t="s">
-        <v>27</v>
-      </c>
-      <c r="B6" t="s">
-        <v>35</v>
-      </c>
-      <c r="C6" t="s">
-        <v>11</v>
-      </c>
-      <c r="D6" t="s">
-        <v>15</v>
-      </c>
-      <c r="E6" t="s">
-        <v>11</v>
-      </c>
-      <c r="F6" t="s">
-        <v>36</v>
-      </c>
-      <c r="G6" t="s">
-        <v>10</v>
-      </c>
-      <c r="H6" s="1" t="s">
-        <v>38</v>
-      </c>
-    </row>
-    <row r="7" spans="1:8" ht="30">
-      <c r="A7" t="s">
-        <v>28</v>
-      </c>
-      <c r="B7" t="s">
-        <v>35</v>
-      </c>
-      <c r="C7" t="s">
-        <v>11</v>
-      </c>
-      <c r="D7" t="s">
-        <v>4</v>
-      </c>
-      <c r="E7" t="s">
-        <v>11</v>
-      </c>
-      <c r="F7" t="s">
-        <v>36</v>
-      </c>
-      <c r="G7" t="s">
-        <v>10</v>
-      </c>
-      <c r="H7" s="1" t="s">
-        <v>39</v>
       </c>
     </row>
     <row r="8" spans="1:8">
       <c r="A8" t="s">
-        <v>29</v>
+        <v>24</v>
       </c>
       <c r="B8" t="s">
-        <v>35</v>
+        <v>27</v>
       </c>
       <c r="C8" t="s">
-        <v>11</v>
+        <v>7</v>
       </c>
       <c r="D8" t="s">
-        <v>5</v>
+        <v>13</v>
       </c>
       <c r="E8" t="s">
-        <v>11</v>
+        <v>7</v>
       </c>
       <c r="F8" t="s">
-        <v>36</v>
+        <v>28</v>
       </c>
       <c r="G8" t="s">
-        <v>10</v>
+        <v>6</v>
       </c>
       <c r="H8" s="1" t="s">
-        <v>7</v>
+        <v>15</v>
       </c>
     </row>
     <row r="9" spans="1:8">
       <c r="A9" t="s">
-        <v>30</v>
+        <v>25</v>
       </c>
       <c r="B9" t="s">
-        <v>35</v>
+        <v>27</v>
       </c>
       <c r="C9" t="s">
-        <v>11</v>
+        <v>7</v>
       </c>
       <c r="D9" t="s">
+        <v>8</v>
+      </c>
+      <c r="E9" t="s">
+        <v>7</v>
+      </c>
+      <c r="F9" t="s">
+        <v>28</v>
+      </c>
+      <c r="G9" t="s">
+        <v>6</v>
+      </c>
+      <c r="H9" s="1" t="s">
         <v>16</v>
-      </c>
-      <c r="E9" t="s">
-        <v>11</v>
-      </c>
-      <c r="F9" t="s">
-        <v>36</v>
-      </c>
-      <c r="G9" t="s">
-        <v>10</v>
-      </c>
-      <c r="H9" s="1" t="s">
-        <v>18</v>
       </c>
     </row>
     <row r="10" spans="1:8">
       <c r="A10" t="s">
-        <v>31</v>
+        <v>26</v>
       </c>
       <c r="B10" t="s">
-        <v>35</v>
+        <v>27</v>
       </c>
       <c r="C10" t="s">
-        <v>11</v>
+        <v>7</v>
       </c>
       <c r="D10" t="s">
+        <v>9</v>
+      </c>
+      <c r="E10" t="s">
+        <v>7</v>
+      </c>
+      <c r="F10" t="s">
+        <v>28</v>
+      </c>
+      <c r="G10" t="s">
+        <v>6</v>
+      </c>
+      <c r="H10" s="1" t="s">
         <v>17</v>
       </c>
-      <c r="E10" t="s">
-        <v>11</v>
-      </c>
-      <c r="F10" t="s">
-        <v>36</v>
-      </c>
-      <c r="G10" t="s">
-        <v>10</v>
-      </c>
-      <c r="H10" s="1" t="s">
-        <v>19</v>
-      </c>
-    </row>
-    <row r="11" spans="1:8">
-      <c r="A11" t="s">
-        <v>32</v>
-      </c>
-      <c r="B11" t="s">
-        <v>35</v>
-      </c>
-      <c r="C11" t="s">
-        <v>11</v>
-      </c>
-      <c r="D11" t="s">
-        <v>12</v>
-      </c>
-      <c r="E11" t="s">
-        <v>11</v>
-      </c>
-      <c r="F11" t="s">
-        <v>36</v>
-      </c>
-      <c r="G11" t="s">
-        <v>10</v>
-      </c>
-      <c r="H11" s="1" t="s">
-        <v>21</v>
-      </c>
-    </row>
-    <row r="12" spans="1:8">
-      <c r="A12" t="s">
-        <v>33</v>
-      </c>
-      <c r="B12" t="s">
-        <v>35</v>
-      </c>
-      <c r="C12" t="s">
-        <v>11</v>
-      </c>
-      <c r="D12" t="s">
-        <v>13</v>
-      </c>
-      <c r="E12" t="s">
-        <v>11</v>
-      </c>
-      <c r="F12" t="s">
-        <v>36</v>
-      </c>
-      <c r="G12" t="s">
-        <v>10</v>
-      </c>
-      <c r="H12" s="1" t="s">
-        <v>22</v>
-      </c>
-    </row>
-    <row r="13" spans="1:8">
-      <c r="A13" t="s">
-        <v>34</v>
-      </c>
-      <c r="B13" t="s">
-        <v>35</v>
-      </c>
-      <c r="C13" t="s">
-        <v>11</v>
-      </c>
-      <c r="D13" t="s">
-        <v>20</v>
-      </c>
-      <c r="E13" t="s">
-        <v>11</v>
-      </c>
-      <c r="F13" t="s">
-        <v>36</v>
-      </c>
-      <c r="G13" t="s">
-        <v>10</v>
-      </c>
-      <c r="H13" s="1" t="s">
-        <v>41</v>
-      </c>
-    </row>
-    <row r="15" spans="1:8" ht="20" customHeight="1"/>
-    <row r="19" ht="18" customHeight="1"/>
+    </row>
+    <row r="12" spans="1:8" ht="20" customHeight="1"/>
+    <row r="16" spans="1:8" ht="18" customHeight="1"/>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
   <pageSetup orientation="portrait" horizontalDpi="4294967292" verticalDpi="4294967292"/>

--- a/design/prompts.xlsx
+++ b/design/prompts.xlsx
@@ -1,10 +1,10 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <fileVersion appName="xl" lastEdited="5" lowestEdited="5" rupBuild="25306"/>
+  <fileVersion appName="xl" lastEdited="5" lowestEdited="5" rupBuild="25317"/>
   <workbookPr showInkAnnotation="0" autoCompressPictures="0"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="12660" windowHeight="10980" tabRatio="500"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="25120" windowHeight="9520" tabRatio="500"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -19,7 +19,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="74" uniqueCount="33">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="106" uniqueCount="45">
   <si>
     <t>Location</t>
   </si>
@@ -30,94 +30,130 @@
     <t>READ_THE_WORD</t>
   </si>
   <si>
-    <t>PUT_DOWN_THE_IPAD</t>
-  </si>
-  <si>
-    <t>When you have read the word, place the iPad flat in front of you again.</t>
-  </si>
-  <si>
-    <t>ON_INTRO</t>
-  </si>
-  <si>
     <t>//</t>
   </si>
   <si>
-    <t>"</t>
-  </si>
-  <si>
-    <t>CORRECT_STIMULUS</t>
-  </si>
-  <si>
-    <t>INCORRECT_SELECTION</t>
-  </si>
-  <si>
-    <t>RED_PICK_UP_IPAD</t>
-  </si>
-  <si>
-    <t>BLUE_PICK_UP_IPAD</t>
-  </si>
-  <si>
-    <t>RED_SELECT_STIMULUS</t>
-  </si>
-  <si>
-    <t>BLUE_SELECT_STIMULUS</t>
-  </si>
-  <si>
-    <t>Red partner now find the word your partner read to you and tap it with your finger.</t>
-  </si>
-  <si>
-    <t>Blue partner now find the word your partner read to you and tap it with your finger.</t>
-  </si>
-  <si>
     <t>The right answer was [ANSWER]</t>
   </si>
   <si>
     <t>The word you chose was [ANSWER]</t>
   </si>
   <si>
-    <t>p_ON_INTRO</t>
-  </si>
-  <si>
-    <t>p_RED_PICK_UP_IPAD</t>
-  </si>
-  <si>
-    <t>p_BLUE_PICK_UP_IPAD</t>
-  </si>
-  <si>
     <t>p_READ_THE_WORD</t>
   </si>
   <si>
-    <t>p_PUT_DOWN_THE_IPAD</t>
-  </si>
-  <si>
-    <t>p_RED_SELECT_STIMULUS</t>
-  </si>
-  <si>
-    <t>p_BLUE_SELECT_STIMULUS</t>
-  </si>
-  <si>
-    <t>p_CORRECT_STIMULUS</t>
-  </si>
-  <si>
-    <t>p_INCORRECT_SELECTION</t>
-  </si>
-  <si>
     <t>=</t>
   </si>
   <si>
     <t>;</t>
   </si>
   <si>
-    <t>Red partner, pick up the iPad and hold it in front of your face so your partner is looking at the back of the iPad.</t>
-  </si>
-  <si>
-    <t>Blue partner,  pick up the iPad and hold it in front of your face so your partner is looking at the back of the iPad.</t>
-  </si>
-  <si>
-    <t>OK, Now read the word you see out loud so your partner can hear it. When you have read the word, place the iPad flat in front of you again.</t>
-  </si>
-  <si>
-    <t>This game will help you and your partner learn to read. One of you will be the red partner and one will be the blue partner. You decide together who will be blue and who will be red!</t>
+    <t>p_WELCOME</t>
+  </si>
+  <si>
+    <t>WELCOME</t>
+  </si>
+  <si>
+    <t>p_INSTRUCTION_0</t>
+  </si>
+  <si>
+    <t>Welcome to Reading Hide and Seek. If you already know how to play, tap on the Start button at any time to begin.</t>
+  </si>
+  <si>
+    <t>%</t>
+  </si>
+  <si>
+    <t>Hider, pick up the tablet and hold it so you can see the screen but the Seeker can't. Then tap the Show button.</t>
+  </si>
+  <si>
+    <t>Hider, read the word you see out loud so the Seeker can hear it, then tap the Hide button and place the tablet in front of you again.</t>
+  </si>
+  <si>
+    <t>Seeker, find the word the Hider read to you and tap it with your finger.</t>
+  </si>
+  <si>
+    <t>Next the Hider will tap on the Show button to display a word . The Hider will read the word  out loud so the Seeker can hear it. Then the Hider will tap on the Hide button and place the tablet down so the Seeker can see the screen.</t>
+  </si>
+  <si>
+    <t>Next the Seeker will find the word  that the Hider read and tap it.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">If the right word is tapped you will hear a chime and the word will be sounded out. </t>
+  </si>
+  <si>
+    <t xml:space="preserve">If the wrong word is tapped the right word and then the wrong word will be sounded out. </t>
+  </si>
+  <si>
+    <t>Next the Seeker is the new Hider and the Hider is the new Seeker.</t>
+  </si>
+  <si>
+    <t>This game will help you and your partner learn to read. You will take turns with one player being the Hider and one the Seeker. To begin the Hider will tap the Start button and hold the tablet so the Seeker can not see the screen.</t>
+  </si>
+  <si>
+    <t>Hider, tap the Start button to begin.</t>
+  </si>
+  <si>
+    <t>p_INSTRUCTION_1</t>
+  </si>
+  <si>
+    <t>INSTRUCTION_0</t>
+  </si>
+  <si>
+    <t>INSTRUCTION_1</t>
+  </si>
+  <si>
+    <t>INSTRUCTION_2</t>
+  </si>
+  <si>
+    <t>INSTRUCTION_3</t>
+  </si>
+  <si>
+    <t>INSTRUCTION_4</t>
+  </si>
+  <si>
+    <t>INSTRUCTION_5</t>
+  </si>
+  <si>
+    <t>p_INSTRUCTION_2</t>
+  </si>
+  <si>
+    <t>p_INSTRUCTION_3</t>
+  </si>
+  <si>
+    <t>p_INSTRUCTION_4</t>
+  </si>
+  <si>
+    <t>p_INSTRUCTION_5</t>
+  </si>
+  <si>
+    <t>p_TAP_START</t>
+  </si>
+  <si>
+    <t>TAP_START</t>
+  </si>
+  <si>
+    <t>p_PICK_UP_TABLET</t>
+  </si>
+  <si>
+    <t>PICK_UP_TABLET</t>
+  </si>
+  <si>
+    <t>p_TAP_ANSWER</t>
+  </si>
+  <si>
+    <t>TAP_ANSWER</t>
+  </si>
+  <si>
+    <t>p_RIGHT_ANSWER</t>
+  </si>
+  <si>
+    <t>RIGHT_ANSWER</t>
+  </si>
+  <si>
+    <t>p_WRONG_ANSWER</t>
+  </si>
+  <si>
+    <t>WRONG_ANSWER</t>
   </si>
 </sst>
 </file>
@@ -158,12 +194,12 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFFFFF00"/>
+        <fgColor theme="0"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
   </fills>
-  <borders count="1">
+  <borders count="2">
     <border>
       <left/>
       <right/>
@@ -171,9 +207,38 @@
       <bottom/>
       <diagonal/>
     </border>
+    <border>
+      <left style="thin">
+        <color auto="1"/>
+      </left>
+      <right style="thin">
+        <color auto="1"/>
+      </right>
+      <top style="thin">
+        <color auto="1"/>
+      </top>
+      <bottom style="thin">
+        <color auto="1"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
-  <cellStyleXfs count="45">
+  <cellStyleXfs count="59">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
@@ -224,12 +289,12 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1"/>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="1" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
   </cellXfs>
-  <cellStyles count="45">
+  <cellStyles count="59">
     <cellStyle name="Followed Hyperlink" xfId="2" builtinId="9" hidden="1"/>
     <cellStyle name="Followed Hyperlink" xfId="4" builtinId="9" hidden="1"/>
     <cellStyle name="Followed Hyperlink" xfId="6" builtinId="9" hidden="1"/>
@@ -252,6 +317,13 @@
     <cellStyle name="Followed Hyperlink" xfId="40" builtinId="9" hidden="1"/>
     <cellStyle name="Followed Hyperlink" xfId="42" builtinId="9" hidden="1"/>
     <cellStyle name="Followed Hyperlink" xfId="44" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="46" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="48" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="50" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="52" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="54" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="56" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="58" builtinId="9" hidden="1"/>
     <cellStyle name="Hyperlink" xfId="1" builtinId="8" hidden="1"/>
     <cellStyle name="Hyperlink" xfId="3" builtinId="8" hidden="1"/>
     <cellStyle name="Hyperlink" xfId="5" builtinId="8" hidden="1"/>
@@ -274,6 +346,13 @@
     <cellStyle name="Hyperlink" xfId="39" builtinId="8" hidden="1"/>
     <cellStyle name="Hyperlink" xfId="41" builtinId="8" hidden="1"/>
     <cellStyle name="Hyperlink" xfId="43" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="45" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="47" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="49" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="51" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="53" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="55" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="57" builtinId="8" hidden="1"/>
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
   <dxfs count="0"/>
@@ -603,10 +682,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:H16"/>
+  <dimension ref="A1:H20"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="D4" sqref="D4"/>
+    <sheetView tabSelected="1" topLeftCell="A7" workbookViewId="0">
+      <selection activeCell="D16" sqref="D16"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0"/>
@@ -629,240 +708,344 @@
     </row>
     <row r="2" spans="1:8" s="2" customFormat="1" ht="30">
       <c r="A2" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="B2" s="2" t="s">
+        <v>7</v>
+      </c>
+      <c r="C2" s="2" t="s">
+        <v>13</v>
+      </c>
+      <c r="D2" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="E2" s="2" t="s">
+        <v>13</v>
+      </c>
+      <c r="F2" s="2" t="s">
+        <v>8</v>
+      </c>
+      <c r="G2" s="2" t="s">
+        <v>3</v>
+      </c>
+      <c r="H2" s="3" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="3" spans="1:8" s="2" customFormat="1" ht="45">
+      <c r="A3" s="2" t="s">
+        <v>11</v>
+      </c>
+      <c r="B3" s="2" t="s">
+        <v>7</v>
+      </c>
+      <c r="C3" s="2" t="s">
+        <v>13</v>
+      </c>
+      <c r="D3" s="2" t="s">
+        <v>25</v>
+      </c>
+      <c r="E3" s="2" t="s">
+        <v>13</v>
+      </c>
+      <c r="F3" s="2" t="s">
+        <v>8</v>
+      </c>
+      <c r="G3" s="2" t="s">
+        <v>3</v>
+      </c>
+      <c r="H3" s="3" t="s">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="4" spans="1:8" s="2" customFormat="1" ht="45">
+      <c r="A4" s="2" t="s">
+        <v>24</v>
+      </c>
+      <c r="B4" s="2" t="s">
+        <v>7</v>
+      </c>
+      <c r="C4" s="2" t="s">
+        <v>13</v>
+      </c>
+      <c r="D4" s="2" t="s">
+        <v>26</v>
+      </c>
+      <c r="E4" s="2" t="s">
+        <v>13</v>
+      </c>
+      <c r="F4" s="2" t="s">
+        <v>8</v>
+      </c>
+      <c r="G4" s="2" t="s">
+        <v>3</v>
+      </c>
+      <c r="H4" s="3" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="5" spans="1:8" s="2" customFormat="1">
+      <c r="A5" s="2" t="s">
+        <v>31</v>
+      </c>
+      <c r="B5" s="2" t="s">
+        <v>7</v>
+      </c>
+      <c r="C5" s="2" t="s">
+        <v>13</v>
+      </c>
+      <c r="D5" s="2" t="s">
+        <v>27</v>
+      </c>
+      <c r="E5" s="2" t="s">
+        <v>13</v>
+      </c>
+      <c r="F5" s="2" t="s">
+        <v>8</v>
+      </c>
+      <c r="G5" s="2" t="s">
+        <v>3</v>
+      </c>
+      <c r="H5" s="3" t="s">
         <v>18</v>
       </c>
-      <c r="B2" s="2" t="s">
-        <v>27</v>
-      </c>
-      <c r="C2" s="2" t="s">
-        <v>7</v>
-      </c>
-      <c r="D2" s="2" t="s">
+    </row>
+    <row r="6" spans="1:8" s="2" customFormat="1">
+      <c r="A6" s="2" t="s">
+        <v>32</v>
+      </c>
+      <c r="B6" s="2" t="s">
+        <v>7</v>
+      </c>
+      <c r="C6" s="2" t="s">
+        <v>13</v>
+      </c>
+      <c r="D6" s="2" t="s">
+        <v>28</v>
+      </c>
+      <c r="E6" s="2" t="s">
+        <v>13</v>
+      </c>
+      <c r="F6" s="2" t="s">
+        <v>8</v>
+      </c>
+      <c r="G6" s="2" t="s">
+        <v>3</v>
+      </c>
+      <c r="H6" s="3" t="s">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="7" spans="1:8" s="2" customFormat="1">
+      <c r="A7" s="2" t="s">
+        <v>33</v>
+      </c>
+      <c r="B7" s="2" t="s">
+        <v>7</v>
+      </c>
+      <c r="C7" s="2" t="s">
+        <v>13</v>
+      </c>
+      <c r="D7" s="2" t="s">
+        <v>29</v>
+      </c>
+      <c r="E7" s="2" t="s">
+        <v>13</v>
+      </c>
+      <c r="F7" s="2" t="s">
+        <v>8</v>
+      </c>
+      <c r="G7" s="2" t="s">
+        <v>3</v>
+      </c>
+      <c r="H7" s="3" t="s">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="8" spans="1:8" s="2" customFormat="1">
+      <c r="A8" s="2" t="s">
+        <v>34</v>
+      </c>
+      <c r="B8" s="2" t="s">
+        <v>7</v>
+      </c>
+      <c r="C8" s="2" t="s">
+        <v>13</v>
+      </c>
+      <c r="D8" s="2" t="s">
+        <v>30</v>
+      </c>
+      <c r="E8" s="2" t="s">
+        <v>13</v>
+      </c>
+      <c r="F8" s="2" t="s">
+        <v>8</v>
+      </c>
+      <c r="G8" s="2" t="s">
+        <v>3</v>
+      </c>
+      <c r="H8" s="3" t="s">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="9" spans="1:8" s="2" customFormat="1">
+      <c r="A9" s="2" t="s">
+        <v>35</v>
+      </c>
+      <c r="B9" s="2" t="s">
+        <v>7</v>
+      </c>
+      <c r="C9" s="2" t="s">
+        <v>13</v>
+      </c>
+      <c r="D9" s="2" t="s">
+        <v>36</v>
+      </c>
+      <c r="E9" s="2" t="s">
+        <v>13</v>
+      </c>
+      <c r="F9" s="2" t="s">
+        <v>8</v>
+      </c>
+      <c r="G9" s="2" t="s">
+        <v>3</v>
+      </c>
+      <c r="H9" s="3" t="s">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="10" spans="1:8" s="2" customFormat="1" ht="30">
+      <c r="A10" s="2" t="s">
+        <v>37</v>
+      </c>
+      <c r="B10" s="2" t="s">
+        <v>7</v>
+      </c>
+      <c r="C10" s="2" t="s">
+        <v>13</v>
+      </c>
+      <c r="D10" s="2" t="s">
+        <v>38</v>
+      </c>
+      <c r="E10" s="2" t="s">
+        <v>13</v>
+      </c>
+      <c r="F10" s="2" t="s">
+        <v>8</v>
+      </c>
+      <c r="G10" s="2" t="s">
+        <v>3</v>
+      </c>
+      <c r="H10" s="3" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="11" spans="1:8" s="2" customFormat="1" ht="30">
+      <c r="A11" s="2" t="s">
+        <v>6</v>
+      </c>
+      <c r="B11" s="2" t="s">
+        <v>7</v>
+      </c>
+      <c r="C11" s="2" t="s">
+        <v>13</v>
+      </c>
+      <c r="D11" s="2" t="s">
+        <v>2</v>
+      </c>
+      <c r="E11" s="2" t="s">
+        <v>13</v>
+      </c>
+      <c r="F11" s="2" t="s">
+        <v>8</v>
+      </c>
+      <c r="G11" s="2" t="s">
+        <v>3</v>
+      </c>
+      <c r="H11" s="3" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="12" spans="1:8">
+      <c r="A12" t="s">
+        <v>39</v>
+      </c>
+      <c r="B12" t="s">
+        <v>7</v>
+      </c>
+      <c r="C12" s="2" t="s">
+        <v>13</v>
+      </c>
+      <c r="D12" t="s">
+        <v>40</v>
+      </c>
+      <c r="E12" s="2" t="s">
+        <v>13</v>
+      </c>
+      <c r="F12" t="s">
+        <v>8</v>
+      </c>
+      <c r="G12" t="s">
+        <v>3</v>
+      </c>
+      <c r="H12" s="1" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="13" spans="1:8">
+      <c r="A13" t="s">
+        <v>41</v>
+      </c>
+      <c r="B13" t="s">
+        <v>7</v>
+      </c>
+      <c r="C13" s="2" t="s">
+        <v>13</v>
+      </c>
+      <c r="D13" t="s">
+        <v>42</v>
+      </c>
+      <c r="E13" s="2" t="s">
+        <v>13</v>
+      </c>
+      <c r="F13" t="s">
+        <v>8</v>
+      </c>
+      <c r="G13" t="s">
+        <v>3</v>
+      </c>
+      <c r="H13" s="1" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="14" spans="1:8">
+      <c r="A14" t="s">
+        <v>43</v>
+      </c>
+      <c r="B14" t="s">
+        <v>7</v>
+      </c>
+      <c r="C14" s="2" t="s">
+        <v>13</v>
+      </c>
+      <c r="D14" t="s">
+        <v>44</v>
+      </c>
+      <c r="E14" s="2" t="s">
+        <v>13</v>
+      </c>
+      <c r="F14" t="s">
+        <v>8</v>
+      </c>
+      <c r="G14" t="s">
+        <v>3</v>
+      </c>
+      <c r="H14" s="1" t="s">
         <v>5</v>
       </c>
-      <c r="E2" s="2" t="s">
-        <v>7</v>
-      </c>
-      <c r="F2" s="2" t="s">
-        <v>28</v>
-      </c>
-      <c r="G2" s="2" t="s">
-        <v>6</v>
-      </c>
-      <c r="H2" s="3" t="s">
-        <v>32</v>
-      </c>
-    </row>
-    <row r="3" spans="1:8" s="2" customFormat="1" ht="30">
-      <c r="A3" s="2" t="s">
-        <v>19</v>
-      </c>
-      <c r="B3" s="2" t="s">
-        <v>27</v>
-      </c>
-      <c r="C3" s="2" t="s">
-        <v>7</v>
-      </c>
-      <c r="D3" s="2" t="s">
-        <v>10</v>
-      </c>
-      <c r="E3" s="2" t="s">
-        <v>7</v>
-      </c>
-      <c r="F3" s="2" t="s">
-        <v>28</v>
-      </c>
-      <c r="G3" s="2" t="s">
-        <v>6</v>
-      </c>
-      <c r="H3" s="3" t="s">
-        <v>29</v>
-      </c>
-    </row>
-    <row r="4" spans="1:8" s="2" customFormat="1" ht="30">
-      <c r="A4" s="2" t="s">
-        <v>20</v>
-      </c>
-      <c r="B4" s="2" t="s">
-        <v>27</v>
-      </c>
-      <c r="C4" s="2" t="s">
-        <v>7</v>
-      </c>
-      <c r="D4" s="2" t="s">
-        <v>11</v>
-      </c>
-      <c r="E4" s="2" t="s">
-        <v>7</v>
-      </c>
-      <c r="F4" s="2" t="s">
-        <v>28</v>
-      </c>
-      <c r="G4" s="2" t="s">
-        <v>6</v>
-      </c>
-      <c r="H4" s="3" t="s">
-        <v>30</v>
-      </c>
-    </row>
-    <row r="5" spans="1:8" s="2" customFormat="1" ht="30">
-      <c r="A5" s="2" t="s">
-        <v>21</v>
-      </c>
-      <c r="B5" s="2" t="s">
-        <v>27</v>
-      </c>
-      <c r="C5" s="2" t="s">
-        <v>7</v>
-      </c>
-      <c r="D5" s="2" t="s">
-        <v>2</v>
-      </c>
-      <c r="E5" s="2" t="s">
-        <v>7</v>
-      </c>
-      <c r="F5" s="2" t="s">
-        <v>28</v>
-      </c>
-      <c r="G5" s="2" t="s">
-        <v>6</v>
-      </c>
-      <c r="H5" s="3" t="s">
-        <v>31</v>
-      </c>
-    </row>
-    <row r="6" spans="1:8">
-      <c r="A6" t="s">
-        <v>22</v>
-      </c>
-      <c r="B6" t="s">
-        <v>27</v>
-      </c>
-      <c r="C6" t="s">
-        <v>7</v>
-      </c>
-      <c r="D6" t="s">
-        <v>3</v>
-      </c>
-      <c r="E6" t="s">
-        <v>7</v>
-      </c>
-      <c r="F6" t="s">
-        <v>28</v>
-      </c>
-      <c r="G6" t="s">
-        <v>6</v>
-      </c>
-      <c r="H6" s="1" t="s">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="7" spans="1:8">
-      <c r="A7" t="s">
-        <v>23</v>
-      </c>
-      <c r="B7" t="s">
-        <v>27</v>
-      </c>
-      <c r="C7" t="s">
-        <v>7</v>
-      </c>
-      <c r="D7" t="s">
-        <v>12</v>
-      </c>
-      <c r="E7" t="s">
-        <v>7</v>
-      </c>
-      <c r="F7" t="s">
-        <v>28</v>
-      </c>
-      <c r="G7" t="s">
-        <v>6</v>
-      </c>
-      <c r="H7" s="1" t="s">
-        <v>14</v>
-      </c>
-    </row>
-    <row r="8" spans="1:8">
-      <c r="A8" t="s">
-        <v>24</v>
-      </c>
-      <c r="B8" t="s">
-        <v>27</v>
-      </c>
-      <c r="C8" t="s">
-        <v>7</v>
-      </c>
-      <c r="D8" t="s">
-        <v>13</v>
-      </c>
-      <c r="E8" t="s">
-        <v>7</v>
-      </c>
-      <c r="F8" t="s">
-        <v>28</v>
-      </c>
-      <c r="G8" t="s">
-        <v>6</v>
-      </c>
-      <c r="H8" s="1" t="s">
-        <v>15</v>
-      </c>
-    </row>
-    <row r="9" spans="1:8">
-      <c r="A9" t="s">
-        <v>25</v>
-      </c>
-      <c r="B9" t="s">
-        <v>27</v>
-      </c>
-      <c r="C9" t="s">
-        <v>7</v>
-      </c>
-      <c r="D9" t="s">
-        <v>8</v>
-      </c>
-      <c r="E9" t="s">
-        <v>7</v>
-      </c>
-      <c r="F9" t="s">
-        <v>28</v>
-      </c>
-      <c r="G9" t="s">
-        <v>6</v>
-      </c>
-      <c r="H9" s="1" t="s">
-        <v>16</v>
-      </c>
-    </row>
-    <row r="10" spans="1:8">
-      <c r="A10" t="s">
-        <v>26</v>
-      </c>
-      <c r="B10" t="s">
-        <v>27</v>
-      </c>
-      <c r="C10" t="s">
-        <v>7</v>
-      </c>
-      <c r="D10" t="s">
-        <v>9</v>
-      </c>
-      <c r="E10" t="s">
-        <v>7</v>
-      </c>
-      <c r="F10" t="s">
-        <v>28</v>
-      </c>
-      <c r="G10" t="s">
-        <v>6</v>
-      </c>
-      <c r="H10" s="1" t="s">
-        <v>17</v>
-      </c>
-    </row>
-    <row r="12" spans="1:8" ht="20" customHeight="1"/>
-    <row r="16" spans="1:8" ht="18" customHeight="1"/>
+    </row>
+    <row r="16" spans="1:8" ht="20" customHeight="1"/>
+    <row r="20" ht="18" customHeight="1"/>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
   <pageSetup orientation="portrait" horizontalDpi="4294967292" verticalDpi="4294967292"/>
